--- a/results/result.xlsx
+++ b/results/result.xlsx
@@ -1,45 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="435" windowWidth="24675" windowHeight="11790"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="results" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
-    <t xml:space="preserve">hello </t>
+    <t>Header</t>
   </si>
   <si>
-    <t>world</t>
+    <t>apress_missing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -55,21 +55,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -148,7 +142,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -183,7 +176,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -359,48 +351,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>